--- a/URS/DbLayouts/L2-業務作業/ClBuilding.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClBuilding.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -459,10 +459,6 @@
   </si>
   <si>
     <t>BdSubUsageCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BdSubArea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -597,19 +593,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">BdLocation = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClCode1 Asc ,ClCode2 Asc ,ClNo Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findBdLocationEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
+    <t>2021-08-05智偉修改代碼編號順序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BdNo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建號(子號)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ParkingTypeCode
 0:無車位
 1:坡道平面車位
 2:機械平面車位
@@ -619,20 +619,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2021-08-05智偉修改代碼編號順序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BdNo1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建號(子號)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>登記面積(坪)</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BdSubArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkingArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityCode = ,AND AreaCode = ,AND IrCode = ,AND BdNo1 = ,AND BdNo2 =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1 Asc ,ClCode2 Asc ,ClNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBdLocationEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1173,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1196,10 +1211,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1209,7 +1224,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>27</v>
@@ -1587,10 +1602,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -1611,7 +1626,7 @@
         <v>95</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>3</v>
@@ -1635,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="18">
         <v>150</v>
@@ -1651,7 +1666,7 @@
         <v>99</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -1661,7 +1676,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1669,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>72</v>
@@ -1682,7 +1697,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1703,7 +1718,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1724,7 +1739,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1757,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="18">
         <v>7</v>
@@ -1818,14 +1833,14 @@
         <v>47</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="18">
         <v>2</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1865,7 +1880,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1873,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="E37" s="18">
         <v>16</v>
@@ -1894,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>51</v>
@@ -1913,7 +1928,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>98</v>
@@ -1932,7 +1947,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>52</v>
@@ -1953,7 +1968,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>53</v>
@@ -1972,7 +1987,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>54</v>
@@ -1988,64 +2003,67 @@
         <v>135</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="E43" s="18">
-        <v>1</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="G44" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E45" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -2055,15 +2073,17 @@
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="E46" s="18">
+        <v>8</v>
+      </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
@@ -2072,17 +2092,15 @@
         <v>39</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="18">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
@@ -2091,15 +2109,17 @@
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E48" s="18">
+        <v>6</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
@@ -2108,26 +2128,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="18">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="A50" s="18">
+        <v>42</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="18">
+        <v>6</v>
+      </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
@@ -2301,6 +2329,15 @@
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2322,15 +2359,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2367,18 +2404,18 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
